--- a/HpResults.xlsx
+++ b/HpResults.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anama\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b13037e7c8de37be/Documents/DSEML/MusicInLearning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47454133-F7D1-4A4A-8984-4702C91377C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{47454133-F7D1-4A4A-8984-4702C91377C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{622865C2-9FDE-4978-97E4-85138C87E26E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2451" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2041" uniqueCount="574">
   <si>
     <t>StartDate</t>
   </si>
@@ -1657,18 +1657,6 @@
     <t>13</t>
   </si>
   <si>
-    <t>R_8RWy5mzkMKzcUeK</t>
-  </si>
-  <si>
-    <t>R_1CKzoBY401QOEOJ</t>
-  </si>
-  <si>
-    <t>37.76.31.35</t>
-  </si>
-  <si>
-    <t>R_1Qa5BLatRBnOVsw</t>
-  </si>
-  <si>
     <t>R_3CZOSsppKwZph58</t>
   </si>
   <si>
@@ -1679,18 +1667,6 @@
   </si>
   <si>
     <t>3,4,5,7,8,11,14,15</t>
-  </si>
-  <si>
-    <t>R_111fxGPj95s8oKQ</t>
-  </si>
-  <si>
-    <t>85.146.85.31</t>
-  </si>
-  <si>
-    <t>R_4GdE9rvwg4THi4S</t>
-  </si>
-  <si>
-    <t>R_2PEcQ5CgFxbS3Cx</t>
   </si>
   <si>
     <t>188.27.131.139</t>
@@ -2127,10 +2103,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CJ56"/>
+  <dimension ref="A1:CJ50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BA1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="L48" workbookViewId="0">
+      <selection activeCell="CD50" sqref="CD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14373,28 +14349,28 @@
     </row>
     <row r="47" spans="1:88" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>45304.392500000002</v>
+        <v>45304.503229166665</v>
       </c>
       <c r="B47" s="1">
-        <v>45304.392569444448</v>
+        <v>45304.509421296294</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>88</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>116</v>
+        <v>295</v>
       </c>
       <c r="E47">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="F47">
-        <v>5</v>
+        <v>534</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>541</v>
       </c>
       <c r="H47" s="1">
-        <v>45311.392581759261</v>
+        <v>45311.509437754627</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>545</v>
@@ -14427,88 +14403,88 @@
         <v>95</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>92</v>
+        <v>214</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="U47" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="V47" s="2" t="s">
-        <v>92</v>
+        <v>216</v>
       </c>
       <c r="W47" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="X47" s="2" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="Y47" s="2" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="Z47" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="AA47" s="2" t="s">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="AB47" s="2" t="s">
-        <v>92</v>
+        <v>207</v>
       </c>
       <c r="AC47" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD47" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE47" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF47" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG47" s="2" t="s">
-        <v>92</v>
+        <v>455</v>
+      </c>
+      <c r="AD47">
+        <v>3.2</v>
+      </c>
+      <c r="AE47">
+        <v>3.456</v>
+      </c>
+      <c r="AF47">
+        <v>40.067999999999998</v>
+      </c>
+      <c r="AG47">
+        <v>2</v>
       </c>
       <c r="AH47" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI47" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ47" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK47" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL47" s="2" t="s">
-        <v>92</v>
+        <v>546</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
+      </c>
+      <c r="AJ47">
+        <v>0</v>
+      </c>
+      <c r="AK47">
+        <v>29.055</v>
+      </c>
+      <c r="AL47">
+        <v>0</v>
       </c>
       <c r="AM47" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AN47" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO47" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AP47" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AQ47" s="2" t="s">
-        <v>92</v>
+        <v>326</v>
+      </c>
+      <c r="AN47">
+        <v>0</v>
+      </c>
+      <c r="AO47">
+        <v>0</v>
+      </c>
+      <c r="AP47">
+        <v>30.212</v>
+      </c>
+      <c r="AQ47">
+        <v>0</v>
       </c>
       <c r="AR47" s="2" t="s">
-        <v>92</v>
+        <v>547</v>
       </c>
       <c r="AS47" s="2" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="AT47" s="2" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="AU47" s="2" t="s">
         <v>92</v>
@@ -14531,41 +14507,41 @@
       <c r="BA47" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BB47" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BC47" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BD47" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BE47" s="2" t="s">
-        <v>92</v>
+      <c r="BB47">
+        <v>0</v>
+      </c>
+      <c r="BC47">
+        <v>0</v>
+      </c>
+      <c r="BD47">
+        <v>26.646000000000001</v>
+      </c>
+      <c r="BE47">
+        <v>0</v>
       </c>
       <c r="BF47" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BG47" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BH47" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BI47" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BJ47" s="2" t="s">
-        <v>92</v>
+      <c r="BG47">
+        <v>0</v>
+      </c>
+      <c r="BH47">
+        <v>0</v>
+      </c>
+      <c r="BI47">
+        <v>35.057000000000002</v>
+      </c>
+      <c r="BJ47">
+        <v>0</v>
       </c>
       <c r="BK47" s="2" t="s">
-        <v>92</v>
+        <v>548</v>
       </c>
       <c r="BL47" s="2" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="BM47" s="2" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="BN47" s="2" t="s">
         <v>92</v>
@@ -14595,22 +14571,22 @@
         <v>92</v>
       </c>
       <c r="BW47">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BX47">
         <v>0</v>
       </c>
       <c r="BY47">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BZ47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA47">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="CB47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CC47">
         <v>0</v>
@@ -14625,10 +14601,10 @@
         <v>0</v>
       </c>
       <c r="CG47">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="CH47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CI47">
         <v>0</v>
@@ -14637,33 +14613,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:88" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:88" ht="116" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>45304.392812500002</v>
+        <v>45305.220023148147</v>
       </c>
       <c r="B48" s="1">
-        <v>45304.393009259256</v>
+        <v>45305.224699074075</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>88</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>149</v>
+        <v>549</v>
       </c>
       <c r="E48">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="F48">
-        <v>17</v>
+        <v>403</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>541</v>
       </c>
       <c r="H48" s="1">
-        <v>45311.393077916669</v>
+        <v>45312.22472972222</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>92</v>
@@ -14693,67 +14669,67 @@
         <v>95</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="T48" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="U48" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="V48" s="2" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="W48" s="2" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="X48" s="2" t="s">
-        <v>92</v>
+        <v>151</v>
       </c>
       <c r="Y48" s="2" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="Z48" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AA48" s="2" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="AB48" s="2" t="s">
-        <v>92</v>
+        <v>551</v>
       </c>
       <c r="AC48" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD48" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE48" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF48" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG48" s="2" t="s">
-        <v>92</v>
+        <v>334</v>
+      </c>
+      <c r="AD48">
+        <v>6.5449999999999999</v>
+      </c>
+      <c r="AE48">
+        <v>6.5449999999999999</v>
+      </c>
+      <c r="AF48">
+        <v>40.015000000000001</v>
+      </c>
+      <c r="AG48">
+        <v>1</v>
       </c>
       <c r="AH48" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI48" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ48" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK48" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL48" s="2" t="s">
-        <v>92</v>
+        <v>552</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
+      </c>
+      <c r="AJ48">
+        <v>0</v>
+      </c>
+      <c r="AK48">
+        <v>29.111999999999998</v>
+      </c>
+      <c r="AL48">
+        <v>0</v>
       </c>
       <c r="AM48" s="2" t="s">
-        <v>92</v>
+        <v>553</v>
       </c>
       <c r="AN48" s="2" t="s">
         <v>92</v>
@@ -14776,41 +14752,41 @@
       <c r="AT48" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AU48" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AV48" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AW48" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AX48" s="2" t="s">
-        <v>92</v>
+      <c r="AU48">
+        <v>0</v>
+      </c>
+      <c r="AV48">
+        <v>0</v>
+      </c>
+      <c r="AW48">
+        <v>30.012</v>
+      </c>
+      <c r="AX48">
+        <v>0</v>
       </c>
       <c r="AY48" s="2" t="s">
-        <v>92</v>
+        <v>554</v>
       </c>
       <c r="AZ48" s="2" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="BA48" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BB48" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BC48" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BD48" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BE48" s="2" t="s">
-        <v>92</v>
+        <v>110</v>
+      </c>
+      <c r="BB48">
+        <v>4.8520000000000003</v>
+      </c>
+      <c r="BC48">
+        <v>9.1349999999999998</v>
+      </c>
+      <c r="BD48">
+        <v>26.007999999999999</v>
+      </c>
+      <c r="BE48">
+        <v>3</v>
       </c>
       <c r="BF48" s="2" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="BG48" s="2" t="s">
         <v>92</v>
@@ -14833,26 +14809,26 @@
       <c r="BM48" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BN48" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BO48" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BP48" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BQ48" s="2" t="s">
-        <v>92</v>
+      <c r="BN48">
+        <v>0</v>
+      </c>
+      <c r="BO48">
+        <v>0</v>
+      </c>
+      <c r="BP48">
+        <v>32.01</v>
+      </c>
+      <c r="BQ48">
+        <v>0</v>
       </c>
       <c r="BR48" s="2" t="s">
-        <v>92</v>
+        <v>555</v>
       </c>
       <c r="BS48" s="2" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="BT48" s="2" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="BU48" s="2" t="s">
         <v>92</v>
@@ -14861,16 +14837,16 @@
         <v>92</v>
       </c>
       <c r="BW48">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BX48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY48">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BZ48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA48">
         <v>0</v>
@@ -14879,16 +14855,16 @@
         <v>0</v>
       </c>
       <c r="CC48">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="CD48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CE48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CG48">
         <v>0</v>
@@ -14897,39 +14873,39 @@
         <v>0</v>
       </c>
       <c r="CI48">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CJ48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:88" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:88" ht="58" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>45304.425335648149</v>
+        <v>45312.478773148148</v>
       </c>
       <c r="B49" s="1">
-        <v>45304.426712962966</v>
+        <v>45312.488541666666</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>88</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="E49">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="F49">
-        <v>119</v>
+        <v>843</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>541</v>
+        <v>90</v>
       </c>
       <c r="H49" s="1">
-        <v>45311.42672949074</v>
+        <v>45312.48855292824</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>92</v>
@@ -14943,11 +14919,11 @@
       <c r="M49" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="N49" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O49" s="2" t="s">
-        <v>92</v>
+      <c r="N49">
+        <v>52.121600000000001</v>
+      </c>
+      <c r="O49">
+        <v>5.1044999999999998</v>
       </c>
       <c r="P49" s="2" t="s">
         <v>93</v>
@@ -14959,243 +14935,243 @@
         <v>95</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>96</v>
+        <v>214</v>
       </c>
       <c r="T49" s="2" t="s">
         <v>97</v>
       </c>
       <c r="U49" s="2" t="s">
-        <v>98</v>
+        <v>215</v>
       </c>
       <c r="V49" s="2" t="s">
-        <v>99</v>
+        <v>216</v>
       </c>
       <c r="W49" s="2" t="s">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="X49" s="2" t="s">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="Y49" s="2" t="s">
-        <v>102</v>
+        <v>314</v>
       </c>
       <c r="Z49" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AA49" s="2" t="s">
-        <v>138</v>
+        <v>227</v>
       </c>
       <c r="AB49" s="2" t="s">
-        <v>217</v>
+        <v>558</v>
       </c>
       <c r="AC49" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="AD49" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE49" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF49" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG49" s="2" t="s">
-        <v>92</v>
+        <v>558</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
+      </c>
+      <c r="AF49">
+        <v>36.969000000000001</v>
+      </c>
+      <c r="AG49">
+        <v>0</v>
       </c>
       <c r="AH49" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI49" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ49" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK49" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL49" s="2" t="s">
-        <v>92</v>
+        <v>559</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
+      </c>
+      <c r="AJ49">
+        <v>0</v>
+      </c>
+      <c r="AK49">
+        <v>28.5</v>
+      </c>
+      <c r="AL49">
+        <v>0</v>
       </c>
       <c r="AM49" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AN49" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO49" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AP49" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AQ49" s="2" t="s">
-        <v>92</v>
+        <v>560</v>
+      </c>
+      <c r="AN49">
+        <v>0</v>
+      </c>
+      <c r="AO49">
+        <v>0</v>
+      </c>
+      <c r="AP49">
+        <v>29.619</v>
+      </c>
+      <c r="AQ49">
+        <v>0</v>
       </c>
       <c r="AR49" s="2" t="s">
-        <v>92</v>
+        <v>561</v>
       </c>
       <c r="AS49" s="2" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="AT49" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AU49" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AV49" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AW49" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AX49" s="2" t="s">
-        <v>92</v>
+        <v>110</v>
+      </c>
+      <c r="AU49">
+        <v>0</v>
+      </c>
+      <c r="AV49">
+        <v>0</v>
+      </c>
+      <c r="AW49">
+        <v>29.492999999999999</v>
+      </c>
+      <c r="AX49">
+        <v>0</v>
       </c>
       <c r="AY49" s="2" t="s">
-        <v>92</v>
+        <v>562</v>
       </c>
       <c r="AZ49" s="2" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="BA49" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BB49" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BC49" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BD49" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BE49" s="2" t="s">
-        <v>92</v>
+        <v>128</v>
+      </c>
+      <c r="BB49">
+        <v>0</v>
+      </c>
+      <c r="BC49">
+        <v>0</v>
+      </c>
+      <c r="BD49">
+        <v>26.015999999999998</v>
+      </c>
+      <c r="BE49">
+        <v>0</v>
       </c>
       <c r="BF49" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BG49" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BH49" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BI49" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BJ49" s="2" t="s">
-        <v>92</v>
+        <v>112</v>
+      </c>
+      <c r="BG49">
+        <v>0</v>
+      </c>
+      <c r="BH49">
+        <v>0</v>
+      </c>
+      <c r="BI49">
+        <v>33.936</v>
+      </c>
+      <c r="BJ49">
+        <v>0</v>
       </c>
       <c r="BK49" s="2" t="s">
-        <v>92</v>
+        <v>563</v>
       </c>
       <c r="BL49" s="2" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="BM49" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BN49" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BO49" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BP49" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BQ49" s="2" t="s">
-        <v>92</v>
+        <v>159</v>
+      </c>
+      <c r="BN49">
+        <v>0</v>
+      </c>
+      <c r="BO49">
+        <v>0</v>
+      </c>
+      <c r="BP49">
+        <v>32.012999999999998</v>
+      </c>
+      <c r="BQ49">
+        <v>0</v>
       </c>
       <c r="BR49" s="2" t="s">
-        <v>92</v>
+        <v>564</v>
       </c>
       <c r="BS49" s="2" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="BT49" s="2" t="s">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="BU49" s="2" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="BV49" s="2" t="s">
-        <v>92</v>
+        <v>565</v>
       </c>
       <c r="BW49">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BX49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY49">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BZ49">
         <v>0</v>
       </c>
       <c r="CA49">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="CB49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC49">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CD49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF49">
         <v>0</v>
       </c>
       <c r="CG49">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="CH49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CI49">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="CJ49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:88" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:88" ht="116" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>45304.503229166665</v>
+        <v>45313.014930555553</v>
       </c>
       <c r="B50" s="1">
-        <v>45304.509421296294</v>
+        <v>45313.021631944444</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>88</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>295</v>
+        <v>566</v>
       </c>
       <c r="E50">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="F50">
-        <v>534</v>
+        <v>578</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>541</v>
+        <v>90</v>
       </c>
       <c r="H50" s="1">
-        <v>45311.509437754627</v>
+        <v>45313.021647511574</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>92</v>
@@ -15209,11 +15185,11 @@
       <c r="M50" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="N50" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O50" s="2" t="s">
-        <v>92</v>
+      <c r="N50">
+        <v>52.246299999999998</v>
+      </c>
+      <c r="O50">
+        <v>4.4226000000000001</v>
       </c>
       <c r="P50" s="2" t="s">
         <v>93</v>
@@ -15225,25 +15201,25 @@
         <v>95</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>214</v>
+        <v>96</v>
       </c>
       <c r="T50" s="2" t="s">
         <v>97</v>
       </c>
       <c r="U50" s="2" t="s">
-        <v>98</v>
+        <v>215</v>
       </c>
       <c r="V50" s="2" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="W50" s="2" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="X50" s="2" t="s">
         <v>136</v>
       </c>
       <c r="Y50" s="2" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="Z50" s="2" t="s">
         <v>97</v>
@@ -15252,25 +15228,25 @@
         <v>138</v>
       </c>
       <c r="AB50" s="2" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="AC50" s="2" t="s">
-        <v>455</v>
+        <v>416</v>
       </c>
       <c r="AD50">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="AE50">
-        <v>3.456</v>
+        <v>0</v>
       </c>
       <c r="AF50">
-        <v>40.067999999999998</v>
+        <v>36.633000000000003</v>
       </c>
       <c r="AG50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH50" s="2" t="s">
-        <v>550</v>
+        <v>568</v>
       </c>
       <c r="AI50">
         <v>0</v>
@@ -15279,13 +15255,13 @@
         <v>0</v>
       </c>
       <c r="AK50">
-        <v>29.055</v>
+        <v>28.805</v>
       </c>
       <c r="AL50">
         <v>0</v>
       </c>
       <c r="AM50" s="2" t="s">
-        <v>326</v>
+        <v>569</v>
       </c>
       <c r="AN50">
         <v>0</v>
@@ -15294,103 +15270,103 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>30.212</v>
+        <v>29.329000000000001</v>
       </c>
       <c r="AQ50">
         <v>0</v>
       </c>
       <c r="AR50" s="2" t="s">
-        <v>551</v>
+        <v>570</v>
       </c>
       <c r="AS50" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AT50" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AU50">
+        <v>0</v>
+      </c>
+      <c r="AV50">
+        <v>0</v>
+      </c>
+      <c r="AW50">
+        <v>29.663</v>
+      </c>
+      <c r="AX50">
+        <v>0</v>
+      </c>
+      <c r="AY50" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="AZ50" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="BA50" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BB50">
+        <v>0</v>
+      </c>
+      <c r="BC50">
+        <v>0</v>
+      </c>
+      <c r="BD50">
+        <v>25.986000000000001</v>
+      </c>
+      <c r="BE50">
+        <v>0</v>
+      </c>
+      <c r="BF50" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="BG50">
+        <v>0</v>
+      </c>
+      <c r="BH50">
+        <v>0</v>
+      </c>
+      <c r="BI50">
+        <v>34.377000000000002</v>
+      </c>
+      <c r="BJ50">
+        <v>0</v>
+      </c>
+      <c r="BK50" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="BL50" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="BM50" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="BN50">
+        <v>0</v>
+      </c>
+      <c r="BO50">
+        <v>0</v>
+      </c>
+      <c r="BP50">
+        <v>32.107999999999997</v>
+      </c>
+      <c r="BQ50">
+        <v>0</v>
+      </c>
+      <c r="BR50" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="BS50" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="AT50" s="2" t="s">
+      <c r="BT50" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AU50" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AV50" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AW50" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AX50" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AY50" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AZ50" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BA50" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BB50">
-        <v>0</v>
-      </c>
-      <c r="BC50">
-        <v>0</v>
-      </c>
-      <c r="BD50">
-        <v>26.646000000000001</v>
-      </c>
-      <c r="BE50">
-        <v>0</v>
-      </c>
-      <c r="BF50" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BG50">
-        <v>0</v>
-      </c>
-      <c r="BH50">
-        <v>0</v>
-      </c>
-      <c r="BI50">
-        <v>35.057000000000002</v>
-      </c>
-      <c r="BJ50">
-        <v>0</v>
-      </c>
-      <c r="BK50" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="BL50" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="BM50" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="BN50" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BO50" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BP50" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BQ50" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BR50" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BS50" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BT50" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="BU50" s="2" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="BV50" s="2" t="s">
-        <v>92</v>
+        <v>573</v>
       </c>
       <c r="BW50">
         <v>5</v>
@@ -15402,1639 +15378,43 @@
         <v>7</v>
       </c>
       <c r="BZ50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA50">
+        <v>7</v>
+      </c>
+      <c r="CB50">
+        <v>0</v>
+      </c>
+      <c r="CC50">
         <v>6</v>
       </c>
-      <c r="CB50">
-        <v>2</v>
-      </c>
-      <c r="CC50">
-        <v>0</v>
-      </c>
       <c r="CD50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF50">
         <v>0</v>
       </c>
       <c r="CG50">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CH50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CI50">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CJ50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:88" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="1">
-        <v>45304.532222222224</v>
-      </c>
-      <c r="B51" s="1">
-        <v>45304.533032407409</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="E51">
-        <v>28</v>
-      </c>
-      <c r="F51">
-        <v>69</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="H51" s="1">
-        <v>45311.53305888889</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="M51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="N51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="P51" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q51" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="R51" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="S51" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="T51" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="U51" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="V51" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="W51" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="X51" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y51" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z51" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA51" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="AB51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AM51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AN51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AP51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AQ51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AU51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AV51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AW51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AX51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AY51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AZ51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BA51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BB51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BC51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BD51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BE51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BF51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BG51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BH51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BI51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BJ51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BK51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BL51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BM51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BN51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BO51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BP51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BQ51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BR51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BS51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BT51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BU51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BV51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BW51">
-        <v>0</v>
-      </c>
-      <c r="BX51">
-        <v>0</v>
-      </c>
-      <c r="BY51">
-        <v>0</v>
-      </c>
-      <c r="BZ51">
-        <v>0</v>
-      </c>
-      <c r="CA51">
-        <v>0</v>
-      </c>
-      <c r="CB51">
-        <v>0</v>
-      </c>
-      <c r="CC51">
-        <v>0</v>
-      </c>
-      <c r="CD51">
-        <v>0</v>
-      </c>
-      <c r="CE51">
-        <v>0</v>
-      </c>
-      <c r="CF51">
-        <v>0</v>
-      </c>
-      <c r="CG51">
-        <v>0</v>
-      </c>
-      <c r="CH51">
-        <v>0</v>
-      </c>
-      <c r="CI51">
-        <v>0</v>
-      </c>
-      <c r="CJ51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:88" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
-        <v>45304.591203703705</v>
-      </c>
-      <c r="B52" s="1">
-        <v>45304.591620370367</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="E52">
-        <v>13</v>
-      </c>
-      <c r="F52">
-        <v>36</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="H52" s="1">
-        <v>45311.610969548608</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="M52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="N52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="P52" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q52" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="R52" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="S52" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="T52" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="U52" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="V52" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="W52" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="X52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AM52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AN52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AP52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AQ52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AU52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AV52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AW52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AX52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AY52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AZ52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BA52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BB52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BC52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BD52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BE52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BF52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BG52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BH52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BI52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BJ52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BK52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BL52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BM52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BN52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BO52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BP52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BQ52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BR52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BS52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BT52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BU52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BV52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BW52">
-        <v>0</v>
-      </c>
-      <c r="BX52">
-        <v>0</v>
-      </c>
-      <c r="BY52">
-        <v>0</v>
-      </c>
-      <c r="BZ52">
-        <v>0</v>
-      </c>
-      <c r="CA52">
-        <v>0</v>
-      </c>
-      <c r="CB52">
-        <v>0</v>
-      </c>
-      <c r="CC52">
-        <v>0</v>
-      </c>
-      <c r="CD52">
-        <v>0</v>
-      </c>
-      <c r="CE52">
-        <v>0</v>
-      </c>
-      <c r="CF52">
-        <v>0</v>
-      </c>
-      <c r="CG52">
-        <v>0</v>
-      </c>
-      <c r="CH52">
-        <v>0</v>
-      </c>
-      <c r="CI52">
-        <v>0</v>
-      </c>
-      <c r="CJ52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:88" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="1">
-        <v>45304.640590277777</v>
-      </c>
-      <c r="B53" s="1">
-        <v>45304.64335648148</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E53">
-        <v>35</v>
-      </c>
-      <c r="F53">
-        <v>239</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="H53" s="1">
-        <v>45311.643451793978</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="N53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="P53" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q53" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="R53" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="S53" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="T53" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="U53" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="V53" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="W53" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="X53" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y53" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z53" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA53" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB53" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC53" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="AD53">
-        <v>22.385999999999999</v>
-      </c>
-      <c r="AE53">
-        <v>23.460999999999999</v>
-      </c>
-      <c r="AF53">
-        <v>40.006</v>
-      </c>
-      <c r="AG53">
-        <v>3</v>
-      </c>
-      <c r="AH53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AM53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AN53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AP53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AQ53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AU53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AV53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AW53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AX53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AY53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AZ53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BA53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BB53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BC53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BD53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BE53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BF53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BG53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BH53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BI53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BJ53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BK53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BL53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BM53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BN53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BO53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BP53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BQ53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BR53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BS53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BT53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BU53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BV53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BW53">
-        <v>0</v>
-      </c>
-      <c r="BX53">
-        <v>0</v>
-      </c>
-      <c r="BY53">
-        <v>0</v>
-      </c>
-      <c r="BZ53">
-        <v>0</v>
-      </c>
-      <c r="CA53">
-        <v>0</v>
-      </c>
-      <c r="CB53">
-        <v>0</v>
-      </c>
-      <c r="CC53">
-        <v>0</v>
-      </c>
-      <c r="CD53">
-        <v>0</v>
-      </c>
-      <c r="CE53">
-        <v>0</v>
-      </c>
-      <c r="CF53">
-        <v>0</v>
-      </c>
-      <c r="CG53">
-        <v>0</v>
-      </c>
-      <c r="CH53">
-        <v>0</v>
-      </c>
-      <c r="CI53">
-        <v>0</v>
-      </c>
-      <c r="CJ53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:88" ht="116" x14ac:dyDescent="0.35">
-      <c r="A54" s="1">
-        <v>45305.220023148147</v>
-      </c>
-      <c r="B54" s="1">
-        <v>45305.224699074075</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="E54">
-        <v>74</v>
-      </c>
-      <c r="F54">
-        <v>403</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="H54" s="1">
-        <v>45312.22472972222</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L54" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="M54" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="N54" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O54" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="P54" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q54" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="R54" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="S54" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="T54" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="U54" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="V54" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="W54" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="X54" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y54" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z54" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA54" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB54" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="AC54" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="AD54">
-        <v>6.5449999999999999</v>
-      </c>
-      <c r="AE54">
-        <v>6.5449999999999999</v>
-      </c>
-      <c r="AF54">
-        <v>40.015000000000001</v>
-      </c>
-      <c r="AG54">
-        <v>1</v>
-      </c>
-      <c r="AH54" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="AI54">
-        <v>0</v>
-      </c>
-      <c r="AJ54">
-        <v>0</v>
-      </c>
-      <c r="AK54">
-        <v>29.111999999999998</v>
-      </c>
-      <c r="AL54">
-        <v>0</v>
-      </c>
-      <c r="AM54" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="AN54" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO54" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AP54" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AQ54" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR54" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS54" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT54" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AU54">
-        <v>0</v>
-      </c>
-      <c r="AV54">
-        <v>0</v>
-      </c>
-      <c r="AW54">
-        <v>30.012</v>
-      </c>
-      <c r="AX54">
-        <v>0</v>
-      </c>
-      <c r="AY54" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="AZ54" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="BA54" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="BB54">
-        <v>4.8520000000000003</v>
-      </c>
-      <c r="BC54">
-        <v>9.1349999999999998</v>
-      </c>
-      <c r="BD54">
-        <v>26.007999999999999</v>
-      </c>
-      <c r="BE54">
-        <v>3</v>
-      </c>
-      <c r="BF54" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="BG54" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BH54" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BI54" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BJ54" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BK54" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BL54" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BM54" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BN54">
-        <v>0</v>
-      </c>
-      <c r="BO54">
-        <v>0</v>
-      </c>
-      <c r="BP54">
-        <v>32.01</v>
-      </c>
-      <c r="BQ54">
-        <v>0</v>
-      </c>
-      <c r="BR54" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="BS54" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="BT54" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="BU54" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BV54" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BW54">
-        <v>7</v>
-      </c>
-      <c r="BX54">
-        <v>1</v>
-      </c>
-      <c r="BY54">
-        <v>5</v>
-      </c>
-      <c r="BZ54">
-        <v>1</v>
-      </c>
-      <c r="CA54">
-        <v>0</v>
-      </c>
-      <c r="CB54">
-        <v>0</v>
-      </c>
-      <c r="CC54">
-        <v>6</v>
-      </c>
-      <c r="CD54">
-        <v>3</v>
-      </c>
-      <c r="CE54">
-        <v>1</v>
-      </c>
-      <c r="CF54">
-        <v>3</v>
-      </c>
-      <c r="CG54">
-        <v>0</v>
-      </c>
-      <c r="CH54">
-        <v>0</v>
-      </c>
-      <c r="CI54">
-        <v>8</v>
-      </c>
-      <c r="CJ54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:88" ht="58" x14ac:dyDescent="0.35">
-      <c r="A55" s="1">
-        <v>45312.478773148148</v>
-      </c>
-      <c r="B55" s="1">
-        <v>45312.488541666666</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="E55">
-        <v>100</v>
-      </c>
-      <c r="F55">
-        <v>843</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H55" s="1">
-        <v>45312.48855292824</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="N55">
-        <v>52.121600000000001</v>
-      </c>
-      <c r="O55">
-        <v>5.1044999999999998</v>
-      </c>
-      <c r="P55" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q55" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="R55" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="S55" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="T55" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="U55" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="V55" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="W55" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="X55" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y55" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="Z55" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA55" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="AB55" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="AC55" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="AD55">
-        <v>0</v>
-      </c>
-      <c r="AE55">
-        <v>0</v>
-      </c>
-      <c r="AF55">
-        <v>36.969000000000001</v>
-      </c>
-      <c r="AG55">
-        <v>0</v>
-      </c>
-      <c r="AH55" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="AI55">
-        <v>0</v>
-      </c>
-      <c r="AJ55">
-        <v>0</v>
-      </c>
-      <c r="AK55">
-        <v>28.5</v>
-      </c>
-      <c r="AL55">
-        <v>0</v>
-      </c>
-      <c r="AM55" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="AN55">
-        <v>0</v>
-      </c>
-      <c r="AO55">
-        <v>0</v>
-      </c>
-      <c r="AP55">
-        <v>29.619</v>
-      </c>
-      <c r="AQ55">
-        <v>0</v>
-      </c>
-      <c r="AR55" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="AS55" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AT55" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AU55">
-        <v>0</v>
-      </c>
-      <c r="AV55">
-        <v>0</v>
-      </c>
-      <c r="AW55">
-        <v>29.492999999999999</v>
-      </c>
-      <c r="AX55">
-        <v>0</v>
-      </c>
-      <c r="AY55" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="AZ55" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="BA55" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="BB55">
-        <v>0</v>
-      </c>
-      <c r="BC55">
-        <v>0</v>
-      </c>
-      <c r="BD55">
-        <v>26.015999999999998</v>
-      </c>
-      <c r="BE55">
-        <v>0</v>
-      </c>
-      <c r="BF55" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="BG55">
-        <v>0</v>
-      </c>
-      <c r="BH55">
-        <v>0</v>
-      </c>
-      <c r="BI55">
-        <v>33.936</v>
-      </c>
-      <c r="BJ55">
-        <v>0</v>
-      </c>
-      <c r="BK55" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="BL55" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="BM55" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="BN55">
-        <v>0</v>
-      </c>
-      <c r="BO55">
-        <v>0</v>
-      </c>
-      <c r="BP55">
-        <v>32.012999999999998</v>
-      </c>
-      <c r="BQ55">
-        <v>0</v>
-      </c>
-      <c r="BR55" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="BS55" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="BT55" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="BU55" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="BV55" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="BW55">
-        <v>7</v>
-      </c>
-      <c r="BX55">
-        <v>1</v>
-      </c>
-      <c r="BY55">
-        <v>6</v>
-      </c>
-      <c r="BZ55">
-        <v>0</v>
-      </c>
-      <c r="CA55">
-        <v>6</v>
-      </c>
-      <c r="CB55">
-        <v>1</v>
-      </c>
-      <c r="CC55">
-        <v>5</v>
-      </c>
-      <c r="CD55">
-        <v>1</v>
-      </c>
-      <c r="CE55">
-        <v>1</v>
-      </c>
-      <c r="CF55">
-        <v>0</v>
-      </c>
-      <c r="CG55">
-        <v>6</v>
-      </c>
-      <c r="CH55">
-        <v>2</v>
-      </c>
-      <c r="CI55">
-        <v>6</v>
-      </c>
-      <c r="CJ55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:88" ht="116" x14ac:dyDescent="0.35">
-      <c r="A56" s="1">
-        <v>45313.014930555553</v>
-      </c>
-      <c r="B56" s="1">
-        <v>45313.021631944444</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="E56">
-        <v>100</v>
-      </c>
-      <c r="F56">
-        <v>578</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H56" s="1">
-        <v>45313.021647511574</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L56" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="M56" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="N56">
-        <v>52.246299999999998</v>
-      </c>
-      <c r="O56">
-        <v>4.4226000000000001</v>
-      </c>
-      <c r="P56" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q56" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="R56" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="S56" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="T56" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="U56" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="V56" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="W56" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="X56" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y56" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z56" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA56" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB56" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="AC56" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="AD56">
-        <v>0</v>
-      </c>
-      <c r="AE56">
-        <v>0</v>
-      </c>
-      <c r="AF56">
-        <v>36.633000000000003</v>
-      </c>
-      <c r="AG56">
-        <v>0</v>
-      </c>
-      <c r="AH56" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="AI56">
-        <v>0</v>
-      </c>
-      <c r="AJ56">
-        <v>0</v>
-      </c>
-      <c r="AK56">
-        <v>28.805</v>
-      </c>
-      <c r="AL56">
-        <v>0</v>
-      </c>
-      <c r="AM56" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="AN56">
-        <v>0</v>
-      </c>
-      <c r="AO56">
-        <v>0</v>
-      </c>
-      <c r="AP56">
-        <v>29.329000000000001</v>
-      </c>
-      <c r="AQ56">
-        <v>0</v>
-      </c>
-      <c r="AR56" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="AS56" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AT56" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AU56">
-        <v>0</v>
-      </c>
-      <c r="AV56">
-        <v>0</v>
-      </c>
-      <c r="AW56">
-        <v>29.663</v>
-      </c>
-      <c r="AX56">
-        <v>0</v>
-      </c>
-      <c r="AY56" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="AZ56" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="BA56" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="BB56">
-        <v>0</v>
-      </c>
-      <c r="BC56">
-        <v>0</v>
-      </c>
-      <c r="BD56">
-        <v>25.986000000000001</v>
-      </c>
-      <c r="BE56">
-        <v>0</v>
-      </c>
-      <c r="BF56" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="BG56">
-        <v>0</v>
-      </c>
-      <c r="BH56">
-        <v>0</v>
-      </c>
-      <c r="BI56">
-        <v>34.377000000000002</v>
-      </c>
-      <c r="BJ56">
-        <v>0</v>
-      </c>
-      <c r="BK56" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="BL56" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="BM56" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="BN56">
-        <v>0</v>
-      </c>
-      <c r="BO56">
-        <v>0</v>
-      </c>
-      <c r="BP56">
-        <v>32.107999999999997</v>
-      </c>
-      <c r="BQ56">
-        <v>0</v>
-      </c>
-      <c r="BR56" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="BS56" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="BT56" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="BU56" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="BV56" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="BW56">
-        <v>5</v>
-      </c>
-      <c r="BX56">
-        <v>0</v>
-      </c>
-      <c r="BY56">
-        <v>7</v>
-      </c>
-      <c r="BZ56">
-        <v>0</v>
-      </c>
-      <c r="CA56">
-        <v>7</v>
-      </c>
-      <c r="CB56">
-        <v>0</v>
-      </c>
-      <c r="CC56">
-        <v>6</v>
-      </c>
-      <c r="CD56">
-        <v>1</v>
-      </c>
-      <c r="CE56">
-        <v>1</v>
-      </c>
-      <c r="CF56">
-        <v>0</v>
-      </c>
-      <c r="CG56">
-        <v>4</v>
-      </c>
-      <c r="CH56">
-        <v>1</v>
-      </c>
-      <c r="CI56">
-        <v>5</v>
-      </c>
-      <c r="CJ56">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C1 D1 G1 I1 J1 K1 L1 M1 P1 Q1 R1 S1 T1 U1 V1 W1 X1 Y1 Z1 AA1 AB1 AC1 AH1 AM1 AR1 AS1 AT1 AY1 AZ1 BA1 BF1 BK1 BL1 BM1 BR1 BS1 BT1 BU1 BV1 C2:C56 D2:D56 G2:G56 I2:I56 J2:J56 K2:K56 L2:L56 M2:M56 P2:P56 Q2:Q56 R2:R56 S2:S56 T2:T56 U2:U56 V2:V56 W2:W56 X2:X56 Y2:Y56 Z2:Z56 AA2:AA56 AB2:AB56 AC2:AC56 AH2:AH56 AM2:AM56 AR2:AR56 AS2:AS56 AT2:AT56 AY2:AY56 AZ2:AZ56 BA2:BA56 BF2:BF56 BK2:BK56 BL2:BL56 BM2:BM56 BR2:BR56 BS2:BS56 BT2:BT56 BU2:BU56 BV2:BV56" numberStoredAsText="1"/>
+    <ignoredError sqref="C1 D1 G1 I1 J1 K1 L1 M1 P1 Q1 R1 S1 T1 U1 V1 W1 X1 Y1 Z1 AA1 AB1 AC1 AH1 AM1 AR1 AS1 AT1 AY1 AZ1 BA1 BF1 BK1 BL1 BM1 BR1 BS1 BT1 BU1 BV1 C2:C46 D2:D46 G2:G46 I2:I46 J2:J46 K2:K46 L2:L46 M2:M46 P2:P46 Q2:Q46 R2:R46 S2:S46 T2:T46 U2:U46 V2:V46 W2:W46 X2:X46 Y2:Y46 Z2:Z46 AA2:AA46 AB2:AB46 AC2:AC46 AH2:AH46 AM2:AM46 AR2:AR46 AS2:AS46 AT2:AT46 AY2:AY46 AZ2:AZ46 BA2:BA46 BF2:BF46 BK2:BK46 BL2:BL46 BM2:BM46 BR2:BR46 BS2:BS46 BT2:BT46 BU2:BU46 BV2:BV46 C48:C50 D48:D50 G48:G50 I48:I50 J48:J50 K48:K50 L48:L50 M48:M50 P48:P50 Q48:Q50 R48:R50 S48:S50 T48:T50 U48:U50 V48:V50 W48:W50 X48:X50 Y48:Y50 Z48:Z50 AA48:AA50 AB48:AB50 AC48:AC50 AH48:AH50 AM48:AM50 AR48:AR50 AS48:AS50 AT48:AT50 AY48:AY50 AZ48:AZ50 BA48:BA50 BF48:BF50 BK48:BK50 BL48:BL50 BM48:BM50 BR48:BR50 BS48:BS50 BT48:BT50 BU48:BU50 BV48:BV50 C47 D47 G47 I47 J47 K47 L47 M47 P47 Q47 R47 S47 T47 U47 V47 W47 X47 Y47 Z47 AA47 AB47 AC47 AH47 AM47 AR47 AS47 AT47 AY47 AZ47 BA47 BF47 BK47 BL47 BM47 BR47 BS47 BT47 BU47 BV47" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>